--- a/Python and MySQL Database Cheatsheet.xlsx
+++ b/Python and MySQL Database Cheatsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F236AA6E-775B-4BB4-B14E-1986CF1CF57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC29B694-802B-4ABA-B29F-39ADFA7647B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31875" yWindow="8835" windowWidth="21600" windowHeight="12645" activeTab="1" xr2:uid="{C831C9F2-F2CA-42A5-BD78-93F700DB84E1}"/>
+    <workbookView xWindow="28680" yWindow="5895" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C831C9F2-F2CA-42A5-BD78-93F700DB84E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Concept</t>
   </si>
@@ -439,6 +439,86 @@
       </rPr>
       <t xml:space="preserve"> commands are for inserting data, and the last line, although it looks a bit strange, is actually inserting into a second table in this format (lastID, score1, score2)</t>
     </r>
+  </si>
+  <si>
+    <t>Connection Pooling for managing reusable database connections</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Import the connection pool
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">import mysql.connector.pooling
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+# Create the connection pool (make this a global variable)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">connectionPool = mysql.connector.pooling.MySQLConnectionPool(
+    pool_name="myPool",
+    pool_size=5,
+    pool_reset_session=True,
+    host="localhost",
+    user="root",
+    password="Root1234YeahBoi",
+    database="subjectStudentDB"
+)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+#Create the db and cursor:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>db = connectionPool.get_connection()
+cursor = db.cursor()</t>
+    </r>
+  </si>
+  <si>
+    <t>Using connection pooling for SQL databases which are going to be resused over and over is best practices, as it reduces the overhead of opening and closing connections for each query. It's best practices overall, and requires only slightly more code.</t>
   </si>
 </sst>
 </file>
@@ -527,13 +607,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7ED3E9B-B7C8-453F-8AFE-C7E72034D531}" name="Table1" displayName="Table1" ref="A1:D10" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:D10" xr:uid="{B7ED3E9B-B7C8-453F-8AFE-C7E72034D531}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7ED3E9B-B7C8-453F-8AFE-C7E72034D531}" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D11" xr:uid="{B7ED3E9B-B7C8-453F-8AFE-C7E72034D531}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9CB6F77B-9048-4911-96C7-1F1A89E46508}" name="Concept" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{8976F610-D1C8-43E2-8551-D66F7C9EEC4E}" name="Code" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{C0E7786A-7684-4314-8847-B6931EA65476}" name="Explained" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{276C5066-C205-4ECF-A837-CE46FA422A66}" name="Notes" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{9CB6F77B-9048-4911-96C7-1F1A89E46508}" name="Concept" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{8976F610-D1C8-43E2-8551-D66F7C9EEC4E}" name="Code" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{C0E7786A-7684-4314-8847-B6931EA65476}" name="Explained" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{276C5066-C205-4ECF-A837-CE46FA422A66}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -879,16 +959,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5E240D-33A4-4D27-96F3-9AE65EFBF670}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="68.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="62" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
@@ -1004,6 +1084,17 @@
         <v>29</v>
       </c>
     </row>
+    <row r="11" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
